--- a/data/実験6.xlsx
+++ b/data/実験6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naoki\Desktop\git\TodaiB4Thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6516AA8-C08B-4AF1-8C8C-6A3D8AE97805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C4A425-F985-483D-BA1B-187DB91BF725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22785" yWindow="1980" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>N</t>
     <phoneticPr fontId="1"/>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t>MSE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true parameter: mu=-pi/2, kappa=0.4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -402,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K9"/>
+  <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -626,6 +630,211 @@
         <v>0.72987276399740897</v>
       </c>
     </row>
+    <row r="12" spans="2:11">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>0.157249396582651</v>
+      </c>
+      <c r="D15">
+        <v>1.9592605039796099E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.13200001651421E-4</v>
+      </c>
+      <c r="F15">
+        <v>1.03143263800236</v>
+      </c>
+      <c r="G15">
+        <v>0.29136565446817098</v>
+      </c>
+      <c r="H15">
+        <v>10.0403504750027</v>
+      </c>
+      <c r="I15">
+        <v>0.15471417763871301</v>
+      </c>
+      <c r="J15">
+        <v>1.9698553256638201E-2</v>
+      </c>
+      <c r="K15">
+        <v>0.17745929399854499</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16">
+        <v>500</v>
+      </c>
+      <c r="C16">
+        <v>2.56121969467537E-2</v>
+      </c>
+      <c r="D16">
+        <v>4.6293873431762196E-3</v>
+      </c>
+      <c r="E16">
+        <v>1.0916799423284799E-4</v>
+      </c>
+      <c r="F16">
+        <v>7.0294240439085595E-2</v>
+      </c>
+      <c r="G16">
+        <v>2.09643104932743E-2</v>
+      </c>
+      <c r="H16">
+        <v>11.5381897630041</v>
+      </c>
+      <c r="I16">
+        <v>2.6454532394929502E-2</v>
+      </c>
+      <c r="J16">
+        <v>4.7024510048789998E-3</v>
+      </c>
+      <c r="K16">
+        <v>0.190973086000885</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17">
+        <v>1000</v>
+      </c>
+      <c r="C17">
+        <v>1.2781981150073301E-2</v>
+      </c>
+      <c r="D17">
+        <v>1.86015942547651E-3</v>
+      </c>
+      <c r="E17">
+        <v>1.25675008166581E-4</v>
+      </c>
+      <c r="F17">
+        <v>4.5615527523203997E-2</v>
+      </c>
+      <c r="G17">
+        <v>7.0253402963549802E-3</v>
+      </c>
+      <c r="H17">
+        <v>13.480179142999599</v>
+      </c>
+      <c r="I17">
+        <v>1.25933123911966E-2</v>
+      </c>
+      <c r="J17">
+        <v>1.9637915724737098E-3</v>
+      </c>
+      <c r="K17">
+        <v>0.21416072499705399</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18">
+        <v>5000</v>
+      </c>
+      <c r="C18">
+        <v>2.3871763147692098E-3</v>
+      </c>
+      <c r="D18">
+        <v>4.7729459915925001E-4</v>
+      </c>
+      <c r="E18">
+        <v>2.2598800365813E-4</v>
+      </c>
+      <c r="F18">
+        <v>7.0722677121047798E-3</v>
+      </c>
+      <c r="G18">
+        <v>1.5724917778899799E-3</v>
+      </c>
+      <c r="H18">
+        <v>27.611124180005799</v>
+      </c>
+      <c r="I18">
+        <v>2.5223634068570898E-3</v>
+      </c>
+      <c r="J18">
+        <v>4.8949236377047003E-4</v>
+      </c>
+      <c r="K18">
+        <v>0.40411713499575802</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19">
+        <v>10000</v>
+      </c>
+      <c r="C19">
+        <v>1.1877052930501801E-3</v>
+      </c>
+      <c r="D19">
+        <v>2.14382154741927E-4</v>
+      </c>
+      <c r="E19">
+        <v>2.91673000901937E-4</v>
+      </c>
+      <c r="F19">
+        <v>4.7296159810225197E-3</v>
+      </c>
+      <c r="G19">
+        <v>6.5087747292221203E-4</v>
+      </c>
+      <c r="H19">
+        <v>48.505968930999501</v>
+      </c>
+      <c r="I19">
+        <v>1.20860954998503E-3</v>
+      </c>
+      <c r="J19">
+        <v>2.18227068529739E-4</v>
+      </c>
+      <c r="K19">
+        <v>0.62603089499636499</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
